--- a/ExcelWorkbook1/bin/Debug/ExcelWorkbook1.xlsx
+++ b/ExcelWorkbook1/bin/Debug/ExcelWorkbook1.xlsx
@@ -352,7 +352,7 @@
 </file>
 
 <file path=vstoDataStore/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EEE15B63-162A-4612-BBE7-51AA4794628B}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F2C58B94-B2A2-4A9D-9DEC-FF9B7C747445}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
--- a/ExcelWorkbook1/bin/Debug/ExcelWorkbook1.xlsx
+++ b/ExcelWorkbook1/bin/Debug/ExcelWorkbook1.xlsx
@@ -352,7 +352,7 @@
 </file>
 
 <file path=vstoDataStore/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F2C58B94-B2A2-4A9D-9DEC-FF9B7C747445}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9A7D30D8-11F9-412B-B406-823366492B63}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
--- a/ExcelWorkbook1/bin/Debug/ExcelWorkbook1.xlsx
+++ b/ExcelWorkbook1/bin/Debug/ExcelWorkbook1.xlsx
@@ -352,7 +352,7 @@
 </file>
 
 <file path=vstoDataStore/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9A7D30D8-11F9-412B-B406-823366492B63}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1542DB67-5681-425E-91B9-545677FE3650}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>